--- a/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/01 One-time matches.xlsx
+++ b/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/01 One-time matches.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3024" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7560" uniqueCount="167">
   <si>
     <t>small_dataset_name</t>
   </si>
@@ -1807,28 +1807,28 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1843,52 +1843,52 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>96</v>
@@ -1897,25 +1897,25 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>113</v>
@@ -1933,25 +1933,25 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>113</v>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>96</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>96</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>156</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>156</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>148</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>148</v>
@@ -2068,19 +2068,19 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -2203,55 +2203,55 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="D52" s="1"/>
     </row>
@@ -2284,28 +2284,28 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1"/>
     </row>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1"/>
     </row>
@@ -2365,28 +2365,28 @@
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D67" s="1"/>
     </row>
